--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>43.18859</v>
-      </c>
-      <c r="C2" t="n">
-        <v>98.45641999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.03011</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03176</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.42263</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93.58305</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.34326</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18.31859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.882770000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18.35423</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.32782</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.73669</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.57439</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21.20154</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.21153</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13.64023</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.23434</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.59279</v>
-      </c>
-      <c r="T2" t="n">
-        <v>16.51662</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7.40194</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.647069999999999</v>
-      </c>
-      <c r="W2" t="n">
-        <v>34.19773</v>
-      </c>
-      <c r="X2" t="n">
-        <v>100.55986</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>44.44509</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>52.11721</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>10.09958</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>59.41011</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.6193</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>48.20014</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10.5657</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1136.11552</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>23.77029</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>32.93635</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>76.57577000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.82854</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>30.35328</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>49.60861</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34.7799</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>43.23628</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.97353</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>46.54806</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80.95856999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.14362</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.46711</v>
-      </c>
-      <c r="G3" t="n">
-        <v>130.99474</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20.14768</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21.11332</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.19221</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.35681</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.59251</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.8223</v>
-      </c>
-      <c r="N3" t="n">
-        <v>56.64156</v>
-      </c>
-      <c r="O3" t="n">
-        <v>23.69879</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.42326</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16.51203</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9.775119999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.71055</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.05802</v>
-      </c>
-      <c r="U3" t="n">
-        <v>16.8294</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.086819999999999</v>
-      </c>
-      <c r="W3" t="n">
-        <v>17.66769</v>
-      </c>
-      <c r="X3" t="n">
-        <v>103.02485</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>82.3921</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>61.54136</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12.07993</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>64.06608</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4.1409</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>64.00319</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.99281</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1211.0197</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27.78936</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>27.53477</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70.87094</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.6956</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29.1378</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41.01195</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35.14369</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>32.27837</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.43795</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40.25109</v>
-      </c>
-      <c r="C4" t="n">
-        <v>85.71509</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.63109</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02332</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.33768</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96.12778</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17.33086</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30.0642</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.74578</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.08722</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.78467</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.72746</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49.09316</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22.24036</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.91253</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16.23176</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11.62136</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.11108</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12.34748</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5.97071</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10.17861</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12.13606</v>
-      </c>
-      <c r="X4" t="n">
-        <v>99.58597</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>94.47924</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>49.7804</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10.18552</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>45.88878</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.09107</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>57.5447</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15.37726</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1131.56552</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23.64522</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29.97959</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>71.00791</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6.17481</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>35.54625</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41.97946</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>33.66487</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>26.17116</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.07423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
